--- a/as_4_reverseEngineering/AssemblyAndStack.xlsx
+++ b/as_4_reverseEngineering/AssemblyAndStack.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EducationRappi\Github\CyberSecRappi\as_4_reverseEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309889A-7EA5-44E9-884F-37B1CCB98BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A515D13-ED01-40D7-A957-1D515A9B719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52350" yWindow="1395" windowWidth="21600" windowHeight="11400" xr2:uid="{AE01B442-E47A-4298-AC0D-2AB51B09020A}"/>
+    <workbookView xWindow="-54765" yWindow="1725" windowWidth="23685" windowHeight="13710" xr2:uid="{AE01B442-E47A-4298-AC0D-2AB51B09020A}"/>
   </bookViews>
   <sheets>
     <sheet name="Calling convention and Stack" sheetId="3" r:id="rId1"/>
     <sheet name="MemoryCorruptionStack" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>void handleData(char *password) {</t>
   </si>
@@ -325,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">Attention using registers within function (fastcall convention): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(in ghidra the subregisters like eax etc. used/visible) </t>
   </si>
 </sst>
 </file>
@@ -586,9 +590,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -599,34 +602,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -634,7 +635,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -643,6 +643,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F3E76F-AA08-42B2-80BC-EE75464DC49F}">
-  <dimension ref="A2:I33"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,334 +975,319 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="G2" s="47" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="G2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="G3" s="23" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="G3" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="G4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="G5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I5" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="G5" s="23">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="G6" s="20">
         <v>1</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I6" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="G6" s="23">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="G7" s="20">
         <v>2</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I7" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="G7" s="23">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="G8" s="20">
         <v>3</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I8" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="G8" s="23">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="G9" s="20">
         <v>4</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I9" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="G9" s="23">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="G10" s="20">
         <v>5</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I10" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43"/>
-      <c r="G10" s="23">
+    <row r="11" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="G11" s="20">
         <v>6</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I11" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="G11" s="29" t="s">
+    <row r="12" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B12" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="G12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="G12" s="32" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="G13" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="34" t="s">
+      <c r="I14" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="G14" s="35" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="G15" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="43"/>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="G16" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="G16" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+    <row r="21" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="41" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="41" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="2:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G11:I11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1323,7 +1311,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F1" t="s">
@@ -1331,38 +1319,38 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="J3" s="18" t="s">
+      <c r="F3" s="3"/>
+      <c r="J3" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1373,17 +1361,17 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="J5" s="19" t="s">
+      <c r="F5" s="3"/>
+      <c r="J5" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1400,10 +1388,10 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1417,7 +1405,7 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1428,17 +1416,17 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="C9">
@@ -1452,7 +1440,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="C10">
@@ -1466,7 +1454,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="C11">
@@ -1480,7 +1468,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="C12">
@@ -1538,67 +1526,97 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2F32E7-2F11-4AD2-B932-AF36CFEAA0E0}">
+  <dimension ref="C6:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>540986570296-264</f>
+        <v>540986570032</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f>540986570296-540986570032</f>
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>